--- a/Homework/Assignment_13/InterpreterProjectTimeLog.xlsx
+++ b/Homework/Assignment_13/InterpreterProjectTimeLog.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\304\www\Homework\Assignment_13\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caiy\Documents\GitHub\csse304\Homework\Assignment_13\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C754E71-CE7A-49C4-86E3-A39477ECA7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25170" windowHeight="12090"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -103,13 +104,19 @@
   <si>
     <t>Make entries daily; submit after each milestone.</t>
   </si>
+  <si>
+    <t>Yuchen Cai</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="m/d;@"/>
+    <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -222,9 +229,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="18" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -236,7 +243,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -248,14 +255,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,58 +541,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="43.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+    <col min="5" max="5" width="43.6640625" customWidth="1"/>
     <col min="6" max="6" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C1" s="15" t="s">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="C1" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
+      <c r="B3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="15"/>
       <c r="D3" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
       <c r="E5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-    </row>
-    <row r="8" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -606,7 +611,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>42647</v>
       </c>
@@ -626,7 +631,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>42647</v>
       </c>
@@ -646,7 +651,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -656,18 +661,24 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>44841</v>
+      </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="F12" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>44844</v>
+      </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
@@ -676,8 +687,10 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>44845</v>
+      </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
@@ -686,8 +699,10 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>44846</v>
+      </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
@@ -696,7 +711,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -706,7 +721,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -716,7 +731,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -726,7 +741,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -736,7 +751,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -746,7 +761,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -756,7 +771,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -766,7 +781,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -776,7 +791,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -786,7 +801,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -796,7 +811,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -806,7 +821,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -816,7 +831,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -826,7 +841,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -836,7 +851,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -846,7 +861,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -856,7 +871,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -866,7 +881,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -876,7 +891,7 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -886,7 +901,7 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -896,7 +911,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -906,7 +921,7 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -916,7 +931,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -926,7 +941,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -936,7 +951,7 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -946,7 +961,7 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -956,7 +971,7 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -966,7 +981,7 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -976,7 +991,7 @@
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -986,7 +1001,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -996,7 +1011,7 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -1006,7 +1021,7 @@
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -1016,7 +1031,7 @@
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -1026,7 +1041,7 @@
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -1036,7 +1051,7 @@
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -1046,7 +1061,7 @@
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -1056,7 +1071,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -1066,7 +1081,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="5"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -1076,7 +1091,7 @@
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="5"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -1086,7 +1101,7 @@
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -1096,7 +1111,7 @@
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -1106,7 +1121,7 @@
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="5"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -1116,7 +1131,7 @@
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -1126,7 +1141,7 @@
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="5"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -1136,7 +1151,7 @@
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="5"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -1146,7 +1161,7 @@
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="5"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -1156,7 +1171,7 @@
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="5"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -1166,7 +1181,7 @@
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="5"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -1176,7 +1191,7 @@
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="5"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -1186,7 +1201,7 @@
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="5"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -1196,7 +1211,7 @@
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="5"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -1206,7 +1221,7 @@
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="5"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -1216,7 +1231,7 @@
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="5"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -1226,7 +1241,7 @@
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="5"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -1236,7 +1251,7 @@
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="5"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
@@ -1246,7 +1261,7 @@
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="5"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
@@ -1256,7 +1271,7 @@
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="5"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
@@ -1266,7 +1281,7 @@
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="5"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
@@ -1276,7 +1291,7 @@
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="5"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
@@ -1286,7 +1301,7 @@
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="5"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
@@ -1305,7 +1320,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$3</xm:f>
           </x14:formula1>
@@ -1318,24 +1333,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
